--- a/biology/Zoologie/César_Marie_Félix_Ancey/César_Marie_Félix_Ancey.xlsx
+++ b/biology/Zoologie/César_Marie_Félix_Ancey/César_Marie_Félix_Ancey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9sar_Marie_F%C3%A9lix_Ancey</t>
+          <t>César_Marie_Félix_Ancey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">César Marie Félix Ancey est un entomologiste et un conchyliologiste français, né le 15 novembre 1860 à Marseille et mort le 10 octobre 1906 à Mascara en Algérie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9sar_Marie_F%C3%A9lix_Ancey</t>
+          <t>César_Marie_Félix_Ancey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Félix Jean Marie Louis Ancey, autre entomologiste et malacologiste renommé.
 Il devient à 23 ans conservateur des collections de Charles Oberthür (1845-1924) à Rennes. Ancey est ensuite fonctionnaire à Mascara au moment de sa mort. Il a travaillé sur les coléoptères et sur les mollusques.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9sar_Marie_F%C3%A9lix_Ancey</t>
+          <t>César_Marie_Félix_Ancey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anthony Musgrave (1932). Bibliography of Australian Entomology, 1775-1930, with biographical notes on authors and collectors,  Royal Zoological Society of New South Wales (Sydney) : viii + 380.</t>
         </is>
